--- a/ヘッダー_結合テスト.xlsx
+++ b/ヘッダー_結合テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CE0B58C-ADB2-4EBC-9F5A-022A12F5B165}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B496244-CF57-49EE-B54F-5F443FF1F5BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -2546,7 +2546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,9 +2563,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3215,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3227,7 +3224,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3267,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3322,7 +3319,7 @@
         <v>178</v>
       </c>
       <c r="G8" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>166</v>
@@ -3360,7 +3357,7 @@
         <v>179</v>
       </c>
       <c r="G10" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>166</v>
@@ -3398,7 +3395,7 @@
         <v>180</v>
       </c>
       <c r="G12" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>166</v>
@@ -3436,7 +3433,7 @@
         <v>181</v>
       </c>
       <c r="G14" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>166</v>
@@ -3474,7 +3471,7 @@
         <v>182</v>
       </c>
       <c r="G16" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>166</v>
@@ -3512,7 +3509,7 @@
         <v>183</v>
       </c>
       <c r="G18" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>166</v>
@@ -3520,7 +3517,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3550,7 +3547,7 @@
         <v>184</v>
       </c>
       <c r="G20" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>166</v>
@@ -3588,7 +3585,7 @@
         <v>128</v>
       </c>
       <c r="G22" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>166</v>
@@ -3626,7 +3623,7 @@
         <v>129</v>
       </c>
       <c r="G24" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>166</v>
@@ -3662,7 +3659,7 @@
         <v>130</v>
       </c>
       <c r="G26" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>166</v>
@@ -3700,7 +3697,7 @@
         <v>131</v>
       </c>
       <c r="G28" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>166</v>
@@ -3738,7 +3735,7 @@
         <v>132</v>
       </c>
       <c r="G30" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>166</v>
@@ -3789,7 +3786,7 @@
         <v>133</v>
       </c>
       <c r="G33" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>166</v>
@@ -3853,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="G37" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>166</v>
@@ -3891,7 +3888,7 @@
         <v>135</v>
       </c>
       <c r="G39" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>166</v>
@@ -3942,7 +3939,7 @@
         <v>136</v>
       </c>
       <c r="G42" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>166</v>
@@ -3980,7 +3977,7 @@
         <v>137</v>
       </c>
       <c r="G44" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>166</v>
@@ -4031,7 +4028,7 @@
         <v>138</v>
       </c>
       <c r="G47" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>166</v>
@@ -4069,7 +4066,7 @@
         <v>139</v>
       </c>
       <c r="G49" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>166</v>
@@ -4107,7 +4104,7 @@
         <v>140</v>
       </c>
       <c r="G51" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>166</v>
@@ -4158,7 +4155,7 @@
         <v>141</v>
       </c>
       <c r="G54" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>166</v>
@@ -4196,7 +4193,7 @@
         <v>142</v>
       </c>
       <c r="G56" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>166</v>
@@ -4247,7 +4244,7 @@
         <v>143</v>
       </c>
       <c r="G59" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>166</v>
@@ -4311,7 +4308,7 @@
         <v>144</v>
       </c>
       <c r="G63" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>166</v>
@@ -4349,7 +4346,7 @@
         <v>145</v>
       </c>
       <c r="G65" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>166</v>
@@ -4400,7 +4397,7 @@
         <v>146</v>
       </c>
       <c r="G68" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>166</v>
@@ -4438,7 +4435,7 @@
         <v>147</v>
       </c>
       <c r="G70" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>166</v>
@@ -4489,7 +4486,7 @@
         <v>148</v>
       </c>
       <c r="G73" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>166</v>
@@ -4527,7 +4524,7 @@
         <v>149</v>
       </c>
       <c r="G75" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>166</v>
@@ -4565,7 +4562,7 @@
         <v>150</v>
       </c>
       <c r="G77" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>166</v>
@@ -4616,7 +4613,7 @@
         <v>151</v>
       </c>
       <c r="G80" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>166</v>
@@ -4680,7 +4677,7 @@
         <v>152</v>
       </c>
       <c r="G84" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>166</v>
@@ -4718,7 +4715,7 @@
         <v>153</v>
       </c>
       <c r="G86" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>166</v>
@@ -4769,7 +4766,7 @@
         <v>154</v>
       </c>
       <c r="G89" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>166</v>
@@ -4807,7 +4804,7 @@
         <v>155</v>
       </c>
       <c r="G91" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>166</v>
@@ -4858,7 +4855,7 @@
         <v>156</v>
       </c>
       <c r="G94" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>166</v>
@@ -4896,7 +4893,7 @@
         <v>157</v>
       </c>
       <c r="G96" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>166</v>
@@ -4934,7 +4931,7 @@
         <v>158</v>
       </c>
       <c r="G98" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>166</v>
@@ -4985,7 +4982,7 @@
         <v>159</v>
       </c>
       <c r="G101" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>166</v>
@@ -5023,7 +5020,7 @@
         <v>160</v>
       </c>
       <c r="G103" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>166</v>
@@ -5074,7 +5071,7 @@
         <v>161</v>
       </c>
       <c r="G106" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>166</v>
@@ -5112,7 +5109,7 @@
         <v>162</v>
       </c>
       <c r="G108" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>166</v>
@@ -5163,7 +5160,7 @@
         <v>164</v>
       </c>
       <c r="G111" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>166</v>
@@ -5199,7 +5196,7 @@
         <v>165</v>
       </c>
       <c r="G113" s="4">
-        <v>45993</v>
+        <v>46027</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>166</v>
